--- a/public/testFiles/test1920ver2OutIn.xlsx
+++ b/public/testFiles/test1920ver2OutIn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trand\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trand\code\year2025\mar\dvc-vite-prototype\public\testFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827C57D7-6C2E-4A1E-995E-704CEAAF2DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA21D049-FC61-4611-A18E-479CDD75DE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25860" yWindow="3420" windowWidth="27720" windowHeight="20655" xr2:uid="{A1028451-429D-462B-8BB7-4F36F7FD45E0}"/>
+    <workbookView xWindow="20205" yWindow="1785" windowWidth="34155" windowHeight="19815" xr2:uid="{A1028451-429D-462B-8BB7-4F36F7FD45E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="140">
   <si>
     <t>Longlist of financial opportunities/financial risks</t>
   </si>
@@ -492,6 +492,9 @@
   <si>
     <t>Impact Score</t>
   </si>
+  <si>
+    <t>Stakeholder</t>
+  </si>
 </sst>
 </file>
 
@@ -894,13 +897,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376FB6A3-01D2-44C6-9228-C48D32F1BDE6}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="V74" sqref="V74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="21" max="21" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1014,7 +1018,9 @@
       <c r="X2" t="s">
         <v>138</v>
       </c>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1086,17 +1092,20 @@
       <c r="U4" s="2"/>
       <c r="V4">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <f ca="1">MAX(0, MIN(10, ROUND(NORMINV(RAND(), V4, 1.2), 0)))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X4">
         <f ca="1">MAX(0, MIN(10, ROUND(NORMINV(RAND(), V4, 1.2), 0)))</f>
-        <v>8</v>
-      </c>
-      <c r="Y4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="Y4" s="2" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,4), "Investor", "Customer", "Employee", "Regulator")</f>
+        <v>Employee</v>
+      </c>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1131,17 +1140,20 @@
       <c r="U5" s="2"/>
       <c r="V5">
         <f t="shared" ref="V5:V68" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <f t="shared" ref="W5:W68" ca="1" si="1">MAX(0, MIN(10, ROUND(NORMINV(RAND(), V5, 1.2), 0)))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f t="shared" ref="X5:X68" ca="1" si="2">MAX(0, MIN(10, ROUND(NORMINV(RAND(), V5, 1.2), 0)))</f>
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="Y5" s="2" t="str">
+        <f t="shared" ref="Y5:Y68" ca="1" si="3">CHOOSE(RANDBETWEEN(1,4), "Investor", "Customer", "Employee", "Regulator")</f>
+        <v>Regulator</v>
+      </c>
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1176,17 +1188,20 @@
       <c r="U6" s="2"/>
       <c r="V6">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="Y6" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1221,17 +1236,20 @@
       <c r="U7" s="2"/>
       <c r="V7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Y7" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="Y7" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1266,17 +1284,20 @@
       <c r="U8" s="2"/>
       <c r="V8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Y8" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="Y8" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1311,17 +1332,20 @@
       <c r="U9" s="2"/>
       <c r="V9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Y9" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="Y9" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1356,17 +1380,20 @@
       <c r="U10" s="2"/>
       <c r="V10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y10" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="Y10" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1401,7 +1428,7 @@
       <c r="U11" s="2"/>
       <c r="V11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="1"/>
@@ -1411,7 +1438,10 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1446,17 +1476,20 @@
       <c r="U12" s="2"/>
       <c r="V12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="Y12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1491,17 +1524,20 @@
       <c r="U13" s="2"/>
       <c r="V13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="Y13" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1538,17 +1574,20 @@
       <c r="U14" s="2"/>
       <c r="V14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W14">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="Y14" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1585,17 +1624,20 @@
       <c r="U15" s="2"/>
       <c r="V15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W15">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X15">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y15" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1632,17 +1674,20 @@
       <c r="U16" s="2"/>
       <c r="V16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="Y16" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1679,17 +1724,20 @@
       <c r="U17" s="2"/>
       <c r="V17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y17" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1726,17 +1774,20 @@
       <c r="U18" s="2"/>
       <c r="V18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1773,17 +1824,20 @@
       <c r="U19" s="2"/>
       <c r="V19">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1820,17 +1874,20 @@
       <c r="U20" s="2"/>
       <c r="V20">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W20">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X20">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="Y20" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1867,17 +1924,20 @@
       <c r="U21" s="2"/>
       <c r="V21">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W21">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X21">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="Y21" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1914,17 +1974,20 @@
       <c r="U22" s="2"/>
       <c r="V22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W22">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="Y22" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1961,17 +2024,20 @@
       <c r="U23" s="2"/>
       <c r="V23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2008,17 +2074,20 @@
       <c r="U24" s="2"/>
       <c r="V24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2053,17 +2122,20 @@
       <c r="U25" s="2"/>
       <c r="V25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W25">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X25">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="Y25" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2098,17 +2170,20 @@
       <c r="U26" s="2"/>
       <c r="V26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W26">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y26" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2147,13 +2222,16 @@
       </c>
       <c r="W27">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X27">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="Y27" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2188,17 +2266,20 @@
       <c r="U28" s="2"/>
       <c r="V28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y28" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2233,17 +2314,20 @@
       <c r="U29" s="2"/>
       <c r="V29">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W29">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X29">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="Y29" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2278,7 +2362,7 @@
       <c r="U30" s="2"/>
       <c r="V30">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W30">
         <f t="shared" ca="1" si="1"/>
@@ -2286,9 +2370,12 @@
       </c>
       <c r="X30">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y30" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2321,17 +2408,20 @@
       <c r="U31" s="2"/>
       <c r="V31">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="Y31" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2368,17 +2458,20 @@
       <c r="U32" s="2"/>
       <c r="V32">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="Y32" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2415,17 +2508,20 @@
       <c r="U33" s="2"/>
       <c r="V33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="Y33" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,17 +2558,20 @@
       <c r="U34" s="2"/>
       <c r="V34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W34">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X34">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2509,17 +2608,20 @@
       <c r="U35" s="2"/>
       <c r="V35">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W35">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X35">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="Y35" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2556,17 +2658,20 @@
       <c r="U36" s="2"/>
       <c r="V36">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W36">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X36">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="Y36" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2603,17 +2708,20 @@
       <c r="U37" s="2"/>
       <c r="V37">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W37">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X37">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="Y37" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2650,17 +2758,20 @@
       <c r="U38" s="2"/>
       <c r="V38">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X38">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="Y38" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2697,17 +2808,20 @@
       <c r="U39" s="2"/>
       <c r="V39">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2744,17 +2858,20 @@
       <c r="U40" s="2"/>
       <c r="V40">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="Y40" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2791,17 +2908,20 @@
       <c r="U41" s="2"/>
       <c r="V41">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="Y41" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2838,7 +2958,7 @@
       <c r="U42" s="2"/>
       <c r="V42">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="1"/>
@@ -2846,9 +2966,12 @@
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="Y42" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2885,17 +3008,20 @@
       <c r="U43" s="2"/>
       <c r="V43">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W43">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X43">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="Y43" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2936,13 +3062,16 @@
       </c>
       <c r="W44">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X44">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="Y44" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2979,17 +3108,20 @@
       <c r="U45" s="2"/>
       <c r="V45">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W45">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X45">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y45" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3030,13 +3162,16 @@
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y46" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3073,17 +3208,20 @@
       <c r="U47" s="2"/>
       <c r="V47">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="Y47" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3120,17 +3258,20 @@
       <c r="U48" s="2"/>
       <c r="V48">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y48" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3167,17 +3308,20 @@
       <c r="U49" s="2"/>
       <c r="V49">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X49">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="Y49" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3214,17 +3358,20 @@
       <c r="U50" s="2"/>
       <c r="V50">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X50">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y50" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3261,17 +3408,20 @@
       <c r="U51" s="2"/>
       <c r="V51">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X51">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y51" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3308,17 +3458,20 @@
       <c r="U52" s="2"/>
       <c r="V52">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W52">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X52">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y52" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3355,17 +3508,20 @@
       <c r="U53" s="2"/>
       <c r="V53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W53">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X53">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="Y53" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3402,17 +3558,20 @@
       <c r="U54" s="2"/>
       <c r="V54">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X54">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3453,13 +3612,16 @@
       </c>
       <c r="W55">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X55">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="Y55" s="2"/>
+      <c r="Y55" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3496,17 +3658,20 @@
       <c r="U56" s="2"/>
       <c r="V56">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W56">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X56">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="Y56" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3543,17 +3708,20 @@
       <c r="U57" s="2"/>
       <c r="V57">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W57">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X57">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3590,17 +3758,20 @@
       <c r="U58" s="2"/>
       <c r="V58">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W58">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X58">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y58" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3637,7 +3808,7 @@
       <c r="U59" s="2"/>
       <c r="V59">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W59">
         <f t="shared" ca="1" si="1"/>
@@ -3645,9 +3816,12 @@
       </c>
       <c r="X59">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y59" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3684,17 +3858,20 @@
       <c r="U60" s="2"/>
       <c r="V60">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W60">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X60">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y60" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3731,17 +3908,20 @@
       <c r="U61" s="2"/>
       <c r="V61">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W61">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X61">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="Y61" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3778,17 +3958,20 @@
       <c r="U62" s="2"/>
       <c r="V62">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W62">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X62">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y62" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="Y62" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3829,13 +4012,16 @@
       </c>
       <c r="W63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X63">
         <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
-      <c r="Y63" s="2"/>
+      <c r="Y63" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3872,17 +4058,20 @@
       <c r="U64" s="2"/>
       <c r="V64">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W64">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X64">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y64" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3919,17 +4108,20 @@
       <c r="U65" s="2"/>
       <c r="V65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W65">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X65">
         <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="Y65" s="2"/>
+      <c r="Y65" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
       <c r="Z65" s="2"/>
     </row>
     <row r="66" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3966,17 +4158,20 @@
       <c r="U66" s="2"/>
       <c r="V66">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W66">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X66">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="Y66" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4013,17 +4208,20 @@
       <c r="U67" s="2"/>
       <c r="V67">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W67">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X67">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y67" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
       <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4060,17 +4258,20 @@
       <c r="U68" s="2"/>
       <c r="V68">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W68">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X68">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Y68" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="Y68" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
       <c r="Z68" s="2"/>
     </row>
     <row r="69" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4106,18 +4307,21 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69">
-        <f t="shared" ref="V69:V98" ca="1" si="3">RANDBETWEEN(0,10)</f>
+        <f t="shared" ref="V69:V98" ca="1" si="4">RANDBETWEEN(0,10)</f>
         <v>6</v>
       </c>
       <c r="W69">
-        <f t="shared" ref="W69:W98" ca="1" si="4">MAX(0, MIN(10, ROUND(NORMINV(RAND(), V69, 1.2), 0)))</f>
-        <v>9</v>
+        <f t="shared" ref="W69:W98" ca="1" si="5">MAX(0, MIN(10, ROUND(NORMINV(RAND(), V69, 1.2), 0)))</f>
+        <v>7</v>
       </c>
       <c r="X69">
-        <f t="shared" ref="X69:X98" ca="1" si="5">MAX(0, MIN(10, ROUND(NORMINV(RAND(), V69, 1.2), 0)))</f>
-        <v>6</v>
-      </c>
-      <c r="Y69" s="2"/>
+        <f t="shared" ref="X69:X98" ca="1" si="6">MAX(0, MIN(10, ROUND(NORMINV(RAND(), V69, 1.2), 0)))</f>
+        <v>4</v>
+      </c>
+      <c r="Y69" s="2" t="str">
+        <f t="shared" ref="Y69:Y98" ca="1" si="7">CHOOSE(RANDBETWEEN(1,4), "Investor", "Customer", "Employee", "Regulator")</f>
+        <v>Employee</v>
+      </c>
       <c r="Z69" s="2"/>
     </row>
     <row r="70" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4153,18 +4357,21 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="W70">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="X70">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="Y70" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Y70" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4200,18 +4407,21 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="W71">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="X71">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Y71" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z71" s="2"/>
     </row>
     <row r="72" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4247,18 +4457,21 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="W72">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="X72">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y72" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y72" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z72" s="2"/>
     </row>
     <row r="73" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4294,18 +4507,21 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="W73">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="X73">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y73" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y73" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Employee</v>
+      </c>
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4341,18 +4557,21 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="W74">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="X74">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="Y74" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y74" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
       <c r="Z74" s="2"/>
     </row>
     <row r="75" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4388,18 +4607,21 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="W75">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="X75">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="Y75" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y75" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4435,18 +4657,21 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="W76">
         <f t="shared" ca="1" si="4"/>
         <v>7</v>
       </c>
+      <c r="W76">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
       <c r="X76">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="Y76" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y76" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Employee</v>
+      </c>
       <c r="Z76" s="2"/>
     </row>
     <row r="77" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4482,18 +4707,21 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="W77">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="X77">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="Y77" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Y77" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z77" s="2"/>
     </row>
     <row r="78" spans="1:26" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4529,18 +4757,21 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="W78">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="X78">
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="W78">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="X78">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Y78" s="2"/>
+      <c r="Y78" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Employee</v>
+      </c>
       <c r="Z78" s="2"/>
     </row>
     <row r="79" spans="1:26" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4576,18 +4807,21 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
       <c r="W79">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="X79">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y79" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
       <c r="Z79" s="2"/>
     </row>
     <row r="80" spans="1:26" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4623,18 +4857,21 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W80">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="X80">
+      <c r="W80">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y80" s="2"/>
+      <c r="X80">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y80" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z80" s="2"/>
     </row>
     <row r="81" spans="1:26" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4670,18 +4907,21 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="W81">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="X81">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Y81" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Y81" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
       <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4717,18 +4957,21 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="W82">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="X82">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y82" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Y82" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
       <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4764,18 +5007,21 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="W83">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="X83">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y83" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z83" s="2"/>
     </row>
     <row r="84" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4811,18 +5057,21 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="W84">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="X84">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Y84" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
       <c r="Z84" s="2"/>
     </row>
     <row r="85" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4858,18 +5107,21 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
       <c r="W85">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="X85">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="Y85" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Y85" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z85" s="2"/>
     </row>
     <row r="86" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4905,18 +5157,21 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="W86">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="X86">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Y86" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y86" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Employee</v>
+      </c>
       <c r="Z86" s="2"/>
     </row>
     <row r="87" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4948,18 +5203,21 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="W87">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="X87">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Y87" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Y87" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Employee</v>
+      </c>
       <c r="Z87" s="2"/>
     </row>
     <row r="88" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4993,18 +5251,21 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="W88">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="X88">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Y88" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y88" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Employee</v>
+      </c>
       <c r="Z88" s="2"/>
     </row>
     <row r="89" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5038,18 +5299,21 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="W89">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="X89">
         <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
-      <c r="Y89" s="2"/>
+      <c r="X89">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Y89" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
       <c r="Z89" s="2"/>
     </row>
     <row r="90" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5083,18 +5347,21 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
       <c r="V90">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="W90">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="X90">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="Y90" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y90" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z90" s="2"/>
     </row>
     <row r="91" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5128,18 +5395,21 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="W91">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="X91">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y91" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Y91" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
       <c r="Z91" s="2"/>
     </row>
     <row r="92" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5173,18 +5443,21 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="W92">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="X92">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Y92" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Y92" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Employee</v>
+      </c>
       <c r="Z92" s="2"/>
     </row>
     <row r="93" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5220,18 +5493,21 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
       <c r="V93">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="W93">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="X93">
         <f t="shared" ca="1" si="5"/>
         <v>7</v>
       </c>
-      <c r="Y93" s="2"/>
+      <c r="X93">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Y93" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
       <c r="Z93" s="2"/>
     </row>
     <row r="94" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5267,18 +5543,21 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="W94">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="X94">
         <f t="shared" ca="1" si="5"/>
         <v>7</v>
       </c>
-      <c r="Y94" s="2"/>
+      <c r="X94">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Y94" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z94" s="2"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5308,18 +5587,21 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="W95">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="X95">
         <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
-      <c r="Y95" s="2"/>
+      <c r="X95">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Y95" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5351,18 +5633,21 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="W96">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="X96">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y96" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y96" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
       <c r="Z96" s="2"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5388,18 +5673,21 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W97">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
+      <c r="W97">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
       <c r="X97">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y97" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y97" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
       <c r="Z97" s="2"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5425,18 +5713,21 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="W98">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="X98">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Y98" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y98" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Employee</v>
+      </c>
       <c r="Z98" s="2"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
